--- a/SeattleTerminal46/Test.xlsx
+++ b/SeattleTerminal46/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>MEDUVL634593</t>
+  </si>
+  <si>
+    <t>TEMU3584963</t>
+  </si>
+  <si>
+    <t>DJSEAA3786849</t>
+  </si>
+  <si>
+    <t>7031961991</t>
+  </si>
+  <si>
+    <t>MEDUMM507023</t>
   </si>
   <si>
     <t>CAIU9040963</t>
@@ -224,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -395,13 +407,13 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -415,24 +427,24 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -441,18 +453,18 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -461,13 +473,33 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal46/Test.xlsx
+++ b/SeattleTerminal46/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,22 +32,76 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>CARU5250459</t>
-  </si>
-  <si>
-    <t>MSC CHANNE</t>
-  </si>
-  <si>
-    <t>00904</t>
-  </si>
-  <si>
-    <t>DJSEAA3731705</t>
-  </si>
-  <si>
-    <t>7031977928</t>
-  </si>
-  <si>
-    <t>GT598385</t>
+    <t>MSKU0623840</t>
+  </si>
+  <si>
+    <t>SEROJA EMPAT</t>
+  </si>
+  <si>
+    <t>00901</t>
+  </si>
+  <si>
+    <t>DJSEAA3618922</t>
+  </si>
+  <si>
+    <t>7031962941</t>
+  </si>
+  <si>
+    <t>580169908</t>
+  </si>
+  <si>
+    <t>CAIU6170773</t>
+  </si>
+  <si>
+    <t>ANNA MAERSK</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>7031986457</t>
+  </si>
+  <si>
+    <t>MAEUDEL8055851</t>
+  </si>
+  <si>
+    <t>TEMU9218262</t>
+  </si>
+  <si>
+    <t>MSC TOPAZ</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>7031956571</t>
+  </si>
+  <si>
+    <t>MEDUVL603887</t>
+  </si>
+  <si>
+    <t>CXRU1028754</t>
+  </si>
+  <si>
+    <t>MSC ATHOS</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>7031978871</t>
+  </si>
+  <si>
+    <t>LH664434</t>
+  </si>
+  <si>
+    <t>CXRU1407207</t>
+  </si>
+  <si>
+    <t>7031986426</t>
+  </si>
+  <si>
+    <t>MEDULH693995</t>
   </si>
   <si>
     <t>MSCU7403745</t>
@@ -65,69 +119,36 @@
     <t>LH660325</t>
   </si>
   <si>
+    <t>SEGU9032733</t>
+  </si>
+  <si>
+    <t>7031985058</t>
+  </si>
+  <si>
+    <t>LH686064</t>
+  </si>
+  <si>
+    <t>CAIU9040963</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>7031982874</t>
+  </si>
+  <si>
+    <t>LH666967</t>
+  </si>
+  <si>
     <t>GESU9261186</t>
   </si>
   <si>
-    <t>MSC ATHOS</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
     <t>7031984023</t>
   </si>
   <si>
     <t>LH680158</t>
   </si>
   <si>
-    <t>MSKU0623840</t>
-  </si>
-  <si>
-    <t>SEROJA EMPAT</t>
-  </si>
-  <si>
-    <t>00901</t>
-  </si>
-  <si>
-    <t>DJSEAA3618922</t>
-  </si>
-  <si>
-    <t>7031962941</t>
-  </si>
-  <si>
-    <t>580169908</t>
-  </si>
-  <si>
-    <t>TEMU9218262</t>
-  </si>
-  <si>
-    <t>MSC TOPAZ</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>7031956571</t>
-  </si>
-  <si>
-    <t>MEDUVL603887</t>
-  </si>
-  <si>
-    <t>CAIU6170773</t>
-  </si>
-  <si>
-    <t>ANNA MAERSK</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>7031986457</t>
-  </si>
-  <si>
-    <t>MAEUDEL8055851</t>
-  </si>
-  <si>
     <t>TEMU9390630</t>
   </si>
   <si>
@@ -143,55 +164,28 @@
     <t>MEDUVL634593</t>
   </si>
   <si>
-    <t>TEMU3584963</t>
-  </si>
-  <si>
-    <t>DJSEAA3786849</t>
-  </si>
-  <si>
-    <t>7031961991</t>
-  </si>
-  <si>
-    <t>MEDUMM507023</t>
-  </si>
-  <si>
-    <t>CAIU9040963</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>7031982874</t>
-  </si>
-  <si>
-    <t>LH666967</t>
-  </si>
-  <si>
-    <t>SEGU9032733</t>
-  </si>
-  <si>
-    <t>7031985058</t>
-  </si>
-  <si>
-    <t>LH686064</t>
-  </si>
-  <si>
-    <t>CXRU1407207</t>
-  </si>
-  <si>
-    <t>7031986426</t>
-  </si>
-  <si>
-    <t>MEDULH693995</t>
-  </si>
-  <si>
-    <t>CXRU1028754</t>
-  </si>
-  <si>
-    <t>7031978871</t>
-  </si>
-  <si>
-    <t>LH664434</t>
+    <t>MSKU8794535</t>
+  </si>
+  <si>
+    <t>MAERSK SHIVLING</t>
+  </si>
+  <si>
+    <t>00907</t>
+  </si>
+  <si>
+    <t>DJSEAA3793971</t>
+  </si>
+  <si>
+    <t>7031979111</t>
+  </si>
+  <si>
+    <t>967501162</t>
+  </si>
+  <si>
+    <t>MRKU5140863</t>
+  </si>
+  <si>
+    <t>DJSEAA3793952</t>
   </si>
 </sst>
 </file>
@@ -336,170 +330,170 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal46/Test.xlsx
+++ b/SeattleTerminal46/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,22 +32,37 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>MSKU0623840</t>
-  </si>
-  <si>
-    <t>SEROJA EMPAT</t>
-  </si>
-  <si>
-    <t>00901</t>
-  </si>
-  <si>
-    <t>DJSEAA3618922</t>
-  </si>
-  <si>
-    <t>7031962941</t>
-  </si>
-  <si>
-    <t>580169908</t>
+    <t>MSKU8794535</t>
+  </si>
+  <si>
+    <t>MAERSK SHIVLING</t>
+  </si>
+  <si>
+    <t>00907</t>
+  </si>
+  <si>
+    <t>DJSEAA3793971</t>
+  </si>
+  <si>
+    <t>7031979111</t>
+  </si>
+  <si>
+    <t>967501162</t>
+  </si>
+  <si>
+    <t>TEMU9218262</t>
+  </si>
+  <si>
+    <t>MSC TOPAZ</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>7031956571</t>
+  </si>
+  <si>
+    <t>MEDUVL603887</t>
   </si>
   <si>
     <t>CAIU6170773</t>
@@ -65,127 +80,157 @@
     <t>MAEUDEL8055851</t>
   </si>
   <si>
-    <t>TEMU9218262</t>
-  </si>
-  <si>
-    <t>MSC TOPAZ</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>7031956571</t>
-  </si>
-  <si>
-    <t>MEDUVL603887</t>
-  </si>
-  <si>
-    <t>CXRU1028754</t>
+    <t>TEMU9390630</t>
+  </si>
+  <si>
+    <t>MSC MARGRIT</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>7031968877</t>
+  </si>
+  <si>
+    <t>MEDUVL634593</t>
+  </si>
+  <si>
+    <t>MRKU5140863</t>
+  </si>
+  <si>
+    <t>DJSEAA3793952</t>
+  </si>
+  <si>
+    <t>MSCU7318622</t>
+  </si>
+  <si>
+    <t>MSC BRANKA</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>7031988379</t>
+  </si>
+  <si>
+    <t>MEDULH706284</t>
+  </si>
+  <si>
+    <t>MRKU2665185</t>
+  </si>
+  <si>
+    <t>SWANSEA</t>
+  </si>
+  <si>
+    <t>00906</t>
+  </si>
+  <si>
+    <t>DJSEAA3852547</t>
+  </si>
+  <si>
+    <t>7031965298</t>
+  </si>
+  <si>
+    <t>580226877</t>
+  </si>
+  <si>
+    <t>MEDU4142644</t>
   </si>
   <si>
     <t>MSC ATHOS</t>
   </si>
   <si>
+    <t>DJSEAA3823161</t>
+  </si>
+  <si>
+    <t>7031987067</t>
+  </si>
+  <si>
+    <t>G1656248</t>
+  </si>
+  <si>
+    <t>SEGU9032733</t>
+  </si>
+  <si>
     <t>906</t>
   </si>
   <si>
-    <t>7031978871</t>
-  </si>
-  <si>
-    <t>LH664434</t>
-  </si>
-  <si>
-    <t>CXRU1407207</t>
-  </si>
-  <si>
-    <t>7031986426</t>
-  </si>
-  <si>
-    <t>MEDULH693995</t>
-  </si>
-  <si>
-    <t>MSCU7403745</t>
-  </si>
-  <si>
-    <t>MSC MAXINE</t>
-  </si>
-  <si>
-    <t>905S</t>
-  </si>
-  <si>
-    <t>7031980045</t>
-  </si>
-  <si>
-    <t>LH660325</t>
-  </si>
-  <si>
-    <t>SEGU9032733</t>
-  </si>
-  <si>
     <t>7031985058</t>
   </si>
   <si>
     <t>LH686064</t>
   </si>
   <si>
-    <t>CAIU9040963</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>7031982874</t>
-  </si>
-  <si>
-    <t>LH666967</t>
-  </si>
-  <si>
-    <t>GESU9261186</t>
-  </si>
-  <si>
-    <t>7031984023</t>
-  </si>
-  <si>
-    <t>LH680158</t>
-  </si>
-  <si>
-    <t>TEMU9390630</t>
-  </si>
-  <si>
-    <t>MSC MARGRIT</t>
-  </si>
-  <si>
-    <t>852</t>
-  </si>
-  <si>
-    <t>7031968877</t>
-  </si>
-  <si>
-    <t>MEDUVL634593</t>
-  </si>
-  <si>
-    <t>MSKU8794535</t>
-  </si>
-  <si>
-    <t>MAERSK SHIVLING</t>
-  </si>
-  <si>
-    <t>00907</t>
-  </si>
-  <si>
-    <t>DJSEAA3793971</t>
-  </si>
-  <si>
-    <t>7031979111</t>
-  </si>
-  <si>
-    <t>967501162</t>
-  </si>
-  <si>
-    <t>MRKU5140863</t>
-  </si>
-  <si>
-    <t>DJSEAA3793952</t>
+    <t>DJSEAA3822682</t>
+  </si>
+  <si>
+    <t>7031965295</t>
+  </si>
+  <si>
+    <t>MRSU0308807</t>
+  </si>
+  <si>
+    <t>DJSEAA3822683</t>
+  </si>
+  <si>
+    <t>INBU5206009</t>
+  </si>
+  <si>
+    <t>DJSEAA3823174</t>
+  </si>
+  <si>
+    <t>MRKU4716614</t>
+  </si>
+  <si>
+    <t>MAERSK STRALSUND</t>
+  </si>
+  <si>
+    <t>00908</t>
+  </si>
+  <si>
+    <t>DJSEAA3836570</t>
+  </si>
+  <si>
+    <t>7031994525</t>
+  </si>
+  <si>
+    <t>580822545</t>
+  </si>
+  <si>
+    <t>MSKU9994008</t>
+  </si>
+  <si>
+    <t>7032009068</t>
+  </si>
+  <si>
+    <t>SUDUN9998AFK5CT5</t>
+  </si>
+  <si>
+    <t>BMOU5920390</t>
+  </si>
+  <si>
+    <t>DJSEAA3852490</t>
+  </si>
+  <si>
+    <t>7031994236</t>
+  </si>
+  <si>
+    <t>BU037140</t>
+  </si>
+  <si>
+    <t>MSKU8924794</t>
+  </si>
+  <si>
+    <t>7032009069</t>
+  </si>
+  <si>
+    <t>7032009067</t>
+  </si>
+  <si>
+    <t>SUDU8860292</t>
+  </si>
+  <si>
+    <t>7032009066</t>
   </si>
 </sst>
 </file>
@@ -230,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -341,159 +386,279 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal46/Test.xlsx
+++ b/SeattleTerminal46/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -50,6 +50,24 @@
     <t>967501162</t>
   </si>
   <si>
+    <t>MSKU5412958</t>
+  </si>
+  <si>
+    <t>ZIM NINGBO</t>
+  </si>
+  <si>
+    <t>00954</t>
+  </si>
+  <si>
+    <t>DJSEAA3874353</t>
+  </si>
+  <si>
+    <t>7031983801</t>
+  </si>
+  <si>
+    <t>580513973</t>
+  </si>
+  <si>
     <t>TEMU9218262</t>
   </si>
   <si>
@@ -65,147 +83,144 @@
     <t>MEDUVL603887</t>
   </si>
   <si>
-    <t>CAIU6170773</t>
-  </si>
-  <si>
-    <t>ANNA MAERSK</t>
+    <t>TEMU9390630</t>
+  </si>
+  <si>
+    <t>MSC MARGRIT</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>7031968877</t>
+  </si>
+  <si>
+    <t>MEDUVL634593</t>
+  </si>
+  <si>
+    <t>MRKU5140863</t>
+  </si>
+  <si>
+    <t>DJSEAA3793952</t>
+  </si>
+  <si>
+    <t>MSCU7318622</t>
+  </si>
+  <si>
+    <t>MSC BRANKA</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>7031988379</t>
+  </si>
+  <si>
+    <t>MEDULH706284</t>
+  </si>
+  <si>
+    <t>MRKU2665185</t>
+  </si>
+  <si>
+    <t>SWANSEA</t>
+  </si>
+  <si>
+    <t>00906</t>
+  </si>
+  <si>
+    <t>DJSEAA3852547</t>
+  </si>
+  <si>
+    <t>7031965298</t>
+  </si>
+  <si>
+    <t>580226877</t>
+  </si>
+  <si>
+    <t>MEDU4142644</t>
+  </si>
+  <si>
+    <t>MSC ATHOS</t>
+  </si>
+  <si>
+    <t>DJSEAA3823161</t>
+  </si>
+  <si>
+    <t>7031987067</t>
+  </si>
+  <si>
+    <t>G1656248</t>
+  </si>
+  <si>
+    <t>SEGU9032733</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>7031985058</t>
+  </si>
+  <si>
+    <t>LH686064</t>
+  </si>
+  <si>
+    <t>DJSEAA3822682</t>
+  </si>
+  <si>
+    <t>7031965295</t>
+  </si>
+  <si>
+    <t>MRSU0308807</t>
+  </si>
+  <si>
+    <t>DJSEAA3822683</t>
+  </si>
+  <si>
+    <t>MRKU4716614</t>
+  </si>
+  <si>
+    <t>MAERSK STRALSUND</t>
+  </si>
+  <si>
+    <t>00908</t>
+  </si>
+  <si>
+    <t>DJSEAA3836570</t>
+  </si>
+  <si>
+    <t>7031994525</t>
+  </si>
+  <si>
+    <t>580822545</t>
+  </si>
+  <si>
+    <t>MSKU9994008</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>7031986457</t>
-  </si>
-  <si>
-    <t>MAEUDEL8055851</t>
-  </si>
-  <si>
-    <t>TEMU9390630</t>
-  </si>
-  <si>
-    <t>MSC MARGRIT</t>
-  </si>
-  <si>
-    <t>852</t>
-  </si>
-  <si>
-    <t>7031968877</t>
-  </si>
-  <si>
-    <t>MEDUVL634593</t>
-  </si>
-  <si>
-    <t>MRKU5140863</t>
-  </si>
-  <si>
-    <t>DJSEAA3793952</t>
-  </si>
-  <si>
-    <t>MSCU7318622</t>
-  </si>
-  <si>
-    <t>MSC BRANKA</t>
-  </si>
-  <si>
-    <t>907</t>
-  </si>
-  <si>
-    <t>7031988379</t>
-  </si>
-  <si>
-    <t>MEDULH706284</t>
-  </si>
-  <si>
-    <t>MRKU2665185</t>
-  </si>
-  <si>
-    <t>SWANSEA</t>
-  </si>
-  <si>
-    <t>00906</t>
-  </si>
-  <si>
-    <t>DJSEAA3852547</t>
-  </si>
-  <si>
-    <t>7031965298</t>
-  </si>
-  <si>
-    <t>580226877</t>
-  </si>
-  <si>
-    <t>MEDU4142644</t>
-  </si>
-  <si>
-    <t>MSC ATHOS</t>
-  </si>
-  <si>
-    <t>DJSEAA3823161</t>
-  </si>
-  <si>
-    <t>7031987067</t>
-  </si>
-  <si>
-    <t>G1656248</t>
-  </si>
-  <si>
-    <t>SEGU9032733</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>7031985058</t>
-  </si>
-  <si>
-    <t>LH686064</t>
-  </si>
-  <si>
-    <t>DJSEAA3822682</t>
-  </si>
-  <si>
-    <t>7031965295</t>
-  </si>
-  <si>
-    <t>MRSU0308807</t>
-  </si>
-  <si>
-    <t>DJSEAA3822683</t>
-  </si>
-  <si>
-    <t>INBU5206009</t>
-  </si>
-  <si>
-    <t>DJSEAA3823174</t>
-  </si>
-  <si>
-    <t>MRKU4716614</t>
-  </si>
-  <si>
-    <t>MAERSK STRALSUND</t>
-  </si>
-  <si>
-    <t>00908</t>
-  </si>
-  <si>
-    <t>DJSEAA3836570</t>
-  </si>
-  <si>
-    <t>7031994525</t>
-  </si>
-  <si>
-    <t>580822545</t>
-  </si>
-  <si>
-    <t>MSKU9994008</t>
-  </si>
-  <si>
     <t>7032009068</t>
   </si>
   <si>
     <t>SUDUN9998AFK5CT5</t>
   </si>
   <si>
+    <t>CXRU1560978</t>
+  </si>
+  <si>
+    <t>MSC LETIZIA</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>7032005103</t>
+  </si>
+  <si>
+    <t>LH788241</t>
+  </si>
+  <si>
     <t>BMOU5920390</t>
   </si>
   <si>
@@ -224,6 +239,21 @@
     <t>7032009069</t>
   </si>
   <si>
+    <t>CXRU1440890</t>
+  </si>
+  <si>
+    <t>MSC ABIDJAN</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>7031996113</t>
+  </si>
+  <si>
+    <t>MEDULH745845</t>
+  </si>
+  <si>
     <t>7032009067</t>
   </si>
   <si>
@@ -231,6 +261,24 @@
   </si>
   <si>
     <t>7032009066</t>
+  </si>
+  <si>
+    <t>GESU9462088</t>
+  </si>
+  <si>
+    <t>7031993956</t>
+  </si>
+  <si>
+    <t>L749227</t>
+  </si>
+  <si>
+    <t>CXRU1196260</t>
+  </si>
+  <si>
+    <t>7031998385</t>
+  </si>
+  <si>
+    <t>LH751660</t>
   </si>
 </sst>
 </file>
@@ -275,7 +323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -335,55 +383,55 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -392,7 +440,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -403,219 +451,219 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
         <v>63</v>
@@ -623,42 +671,102 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal46/Test.xlsx
+++ b/SeattleTerminal46/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,21 +32,6 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TEMU9390630</t>
-  </si>
-  <si>
-    <t>MSC MARGRIT</t>
-  </si>
-  <si>
-    <t>852</t>
-  </si>
-  <si>
-    <t>7031968877</t>
-  </si>
-  <si>
-    <t>MEDUVL634593</t>
-  </si>
-  <si>
     <t>MSKU8794535</t>
   </si>
   <si>
@@ -116,63 +101,51 @@
     <t>SUDUN9998AFK5CT5</t>
   </si>
   <si>
-    <t>ZCSU7073288</t>
+    <t>TTNU8707575</t>
+  </si>
+  <si>
+    <t>MSC JULIE</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>7032008266</t>
+  </si>
+  <si>
+    <t>LH796210</t>
+  </si>
+  <si>
+    <t>SZLU9476921</t>
+  </si>
+  <si>
+    <t>7032008269</t>
+  </si>
+  <si>
+    <t>LH801739</t>
+  </si>
+  <si>
+    <t>CXRU1560978</t>
+  </si>
+  <si>
+    <t>MSC LETIZIA</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>7032005103</t>
+  </si>
+  <si>
+    <t>LH788241</t>
+  </si>
+  <si>
+    <t>CLHU2090427</t>
   </si>
   <si>
     <t>ZIM SAN DIEGO</t>
   </si>
   <si>
-    <t>025N</t>
-  </si>
-  <si>
-    <t>7031998318</t>
-  </si>
-  <si>
-    <t>BKK80019734</t>
-  </si>
-  <si>
-    <t>TTNU8707575</t>
-  </si>
-  <si>
-    <t>MSC JULIE</t>
-  </si>
-  <si>
-    <t>912</t>
-  </si>
-  <si>
-    <t>7032008266</t>
-  </si>
-  <si>
-    <t>LH796210</t>
-  </si>
-  <si>
-    <t>SZLU9476921</t>
-  </si>
-  <si>
-    <t>7032008269</t>
-  </si>
-  <si>
-    <t>LH801739</t>
-  </si>
-  <si>
-    <t>CXRU1560978</t>
-  </si>
-  <si>
-    <t>MSC LETIZIA</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>7032005103</t>
-  </si>
-  <si>
-    <t>LH788241</t>
-  </si>
-  <si>
-    <t>CLHU2090427</t>
-  </si>
-  <si>
     <t>39E</t>
   </si>
   <si>
@@ -182,21 +155,6 @@
     <t>MEDUX1491521</t>
   </si>
   <si>
-    <t>MSKU5688000</t>
-  </si>
-  <si>
-    <t>00939</t>
-  </si>
-  <si>
-    <t>DJSEAA3912906</t>
-  </si>
-  <si>
-    <t>7031986768</t>
-  </si>
-  <si>
-    <t>967950329</t>
-  </si>
-  <si>
     <t>CXRU1440890</t>
   </si>
   <si>
@@ -212,90 +170,69 @@
     <t>MEDULH745845</t>
   </si>
   <si>
-    <t>MSKU4214644</t>
-  </si>
-  <si>
-    <t>DJSEAA3912912</t>
-  </si>
-  <si>
-    <t>SUDU5803642</t>
+    <t>ZCSU5832364</t>
+  </si>
+  <si>
+    <t>MAERSK SARNIA</t>
+  </si>
+  <si>
+    <t>912N</t>
+  </si>
+  <si>
+    <t>7032002341</t>
+  </si>
+  <si>
+    <t>BKK80020727</t>
+  </si>
+  <si>
+    <t>GESU9343094</t>
+  </si>
+  <si>
+    <t>7032006599</t>
+  </si>
+  <si>
+    <t>MEDULH796228</t>
+  </si>
+  <si>
+    <t>MRSU3930938</t>
+  </si>
+  <si>
+    <t>7032022759</t>
+  </si>
+  <si>
+    <t>SUDUN9998AGCZ0MX</t>
+  </si>
+  <si>
+    <t>ZCSU7051822</t>
+  </si>
+  <si>
+    <t>7032003112</t>
+  </si>
+  <si>
+    <t>BKK80020794</t>
+  </si>
+  <si>
+    <t>BSIU9692606</t>
+  </si>
+  <si>
+    <t>CAPE MARTIN</t>
+  </si>
+  <si>
+    <t>001N</t>
+  </si>
+  <si>
+    <t>7032002328</t>
+  </si>
+  <si>
+    <t>BKK80020612</t>
+  </si>
+  <si>
+    <t>MSKU8481973</t>
   </si>
   <si>
     <t>ZIM NINGBO</t>
   </si>
   <si>
-    <t>54E</t>
-  </si>
-  <si>
-    <t>DJSEAA3888653</t>
-  </si>
-  <si>
-    <t>7032005158</t>
-  </si>
-  <si>
-    <t>N9998AGCT83A</t>
-  </si>
-  <si>
-    <t>ZCSU5832364</t>
-  </si>
-  <si>
-    <t>MAERSK SARNIA</t>
-  </si>
-  <si>
-    <t>912N</t>
-  </si>
-  <si>
-    <t>7032002341</t>
-  </si>
-  <si>
-    <t>BKK80020727</t>
-  </si>
-  <si>
-    <t>GESU9343094</t>
-  </si>
-  <si>
-    <t>7032006599</t>
-  </si>
-  <si>
-    <t>MEDULH796228</t>
-  </si>
-  <si>
-    <t>MRSU3930938</t>
-  </si>
-  <si>
-    <t>7032022759</t>
-  </si>
-  <si>
-    <t>SUDUN9998AGCZ0MX</t>
-  </si>
-  <si>
-    <t>ZCSU7051822</t>
-  </si>
-  <si>
-    <t>7032003112</t>
-  </si>
-  <si>
-    <t>BKK80020794</t>
-  </si>
-  <si>
-    <t>BSIU9692606</t>
-  </si>
-  <si>
-    <t>CAPE MARTIN</t>
-  </si>
-  <si>
-    <t>001N</t>
-  </si>
-  <si>
-    <t>7032002328</t>
-  </si>
-  <si>
-    <t>BKK80020612</t>
-  </si>
-  <si>
-    <t>MSKU8481973</t>
-  </si>
-  <si>
     <t>7032018679</t>
   </si>
   <si>
@@ -368,12 +305,6 @@
     <t>LH796376</t>
   </si>
   <si>
-    <t>MRKU9401230</t>
-  </si>
-  <si>
-    <t>DJSEAA3912909</t>
-  </si>
-  <si>
     <t>ZCSU5102140</t>
   </si>
   <si>
@@ -401,12 +332,6 @@
     <t>LH801655</t>
   </si>
   <si>
-    <t>MRKU6927196</t>
-  </si>
-  <si>
-    <t>DJSEAA3912903</t>
-  </si>
-  <si>
     <t>TCNU8906614</t>
   </si>
   <si>
@@ -414,15 +339,6 @@
   </si>
   <si>
     <t>BKK80019752</t>
-  </si>
-  <si>
-    <t>ZCSU5864783</t>
-  </si>
-  <si>
-    <t>7031998317</t>
-  </si>
-  <si>
-    <t>BKK80019843</t>
   </si>
 </sst>
 </file>
@@ -467,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -507,24 +423,24 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -538,47 +454,47 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -587,18 +503,18 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -618,50 +534,50 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -698,479 +614,319 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>58</v>
       </c>
       <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
         <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>61</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
         <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
         <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
         <v>82</v>
       </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
         <v>83</v>
-      </c>
-      <c r="E19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
         <v>85</v>
       </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
         <v>86</v>
-      </c>
-      <c r="E20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
         <v>88</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>89</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
         <v>90</v>
-      </c>
-      <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
         <v>96</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F35" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal46/Test.xlsx
+++ b/SeattleTerminal46/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -140,63 +140,84 @@
     <t>LH788241</t>
   </si>
   <si>
-    <t>CLHU2090427</t>
+    <t>MRKU6368884</t>
+  </si>
+  <si>
+    <t>MAERSK SARNIA</t>
+  </si>
+  <si>
+    <t>00912</t>
+  </si>
+  <si>
+    <t>DJSEAA3988022</t>
+  </si>
+  <si>
+    <t>7031999124</t>
+  </si>
+  <si>
+    <t>580874559</t>
+  </si>
+  <si>
+    <t>TLLU2231509</t>
+  </si>
+  <si>
+    <t>7032026509</t>
+  </si>
+  <si>
+    <t>967884224</t>
+  </si>
+  <si>
+    <t>CXRU1440890</t>
+  </si>
+  <si>
+    <t>MSC ABIDJAN</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>7031996113</t>
+  </si>
+  <si>
+    <t>MEDULH745845</t>
+  </si>
+  <si>
+    <t>ZCSU5832364</t>
+  </si>
+  <si>
+    <t>912N</t>
+  </si>
+  <si>
+    <t>7032002341</t>
+  </si>
+  <si>
+    <t>BKK80020727</t>
+  </si>
+  <si>
+    <t>SZLU9476201</t>
+  </si>
+  <si>
+    <t>7032008265</t>
+  </si>
+  <si>
+    <t>LH796137</t>
+  </si>
+  <si>
+    <t>GESU9343094</t>
+  </si>
+  <si>
+    <t>7032006599</t>
+  </si>
+  <si>
+    <t>MEDULH796228</t>
+  </si>
+  <si>
+    <t>MRSU3930938</t>
   </si>
   <si>
     <t>ZIM SAN DIEGO</t>
   </si>
   <si>
-    <t>39E</t>
-  </si>
-  <si>
-    <t>7032022979</t>
-  </si>
-  <si>
-    <t>MEDUX1491521</t>
-  </si>
-  <si>
-    <t>CXRU1440890</t>
-  </si>
-  <si>
-    <t>MSC ABIDJAN</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
-    <t>7031996113</t>
-  </si>
-  <si>
-    <t>MEDULH745845</t>
-  </si>
-  <si>
-    <t>ZCSU5832364</t>
-  </si>
-  <si>
-    <t>MAERSK SARNIA</t>
-  </si>
-  <si>
-    <t>912N</t>
-  </si>
-  <si>
-    <t>7032002341</t>
-  </si>
-  <si>
-    <t>BKK80020727</t>
-  </si>
-  <si>
-    <t>GESU9343094</t>
-  </si>
-  <si>
-    <t>7032006599</t>
-  </si>
-  <si>
-    <t>MEDULH796228</t>
-  </si>
-  <si>
-    <t>MRSU3930938</t>
-  </si>
-  <si>
     <t>7032022759</t>
   </si>
   <si>
@@ -239,106 +260,112 @@
     <t>SUDUN9998AGCT2KJ</t>
   </si>
   <si>
-    <t>ZCSU8257398</t>
+    <t>TTNU8153513</t>
+  </si>
+  <si>
+    <t>MSC SILVIA</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>7032001096</t>
+  </si>
+  <si>
+    <t>MEDULH765884</t>
+  </si>
+  <si>
+    <t>ZCSU5867967</t>
+  </si>
+  <si>
+    <t>7032002329</t>
+  </si>
+  <si>
+    <t>BKK80020607</t>
+  </si>
+  <si>
+    <t>TLLU4576990</t>
+  </si>
+  <si>
+    <t>001W</t>
+  </si>
+  <si>
+    <t>7032003113</t>
+  </si>
+  <si>
+    <t>BKK80020464</t>
+  </si>
+  <si>
+    <t>CRXU6907907</t>
+  </si>
+  <si>
+    <t>7032008270</t>
+  </si>
+  <si>
+    <t>LH801697</t>
+  </si>
+  <si>
+    <t>SZLU9040537</t>
+  </si>
+  <si>
+    <t>7032008272</t>
+  </si>
+  <si>
+    <t>LH796376</t>
+  </si>
+  <si>
+    <t>ZCSU5102140</t>
+  </si>
+  <si>
+    <t>7032002340</t>
+  </si>
+  <si>
+    <t>BKK80020606</t>
+  </si>
+  <si>
+    <t>SEGU9160360</t>
+  </si>
+  <si>
+    <t>7032008271</t>
+  </si>
+  <si>
+    <t>LH799479</t>
+  </si>
+  <si>
+    <t>TRIU8220658</t>
+  </si>
+  <si>
+    <t>7032008268</t>
+  </si>
+  <si>
+    <t>LH801655</t>
+  </si>
+  <si>
+    <t>TCNU8906614</t>
   </si>
   <si>
     <t>039E</t>
   </si>
   <si>
-    <t>7031998319</t>
-  </si>
-  <si>
-    <t>BKK80020422</t>
-  </si>
-  <si>
-    <t>TTNU8153513</t>
-  </si>
-  <si>
-    <t>MSC SILVIA</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>7032001096</t>
-  </si>
-  <si>
-    <t>MEDULH765884</t>
-  </si>
-  <si>
-    <t>ZCSU5867967</t>
-  </si>
-  <si>
-    <t>7032002329</t>
-  </si>
-  <si>
-    <t>BKK80020607</t>
-  </si>
-  <si>
-    <t>TLLU4576990</t>
-  </si>
-  <si>
-    <t>001W</t>
-  </si>
-  <si>
-    <t>7032003113</t>
-  </si>
-  <si>
-    <t>BKK80020464</t>
-  </si>
-  <si>
-    <t>CRXU6907907</t>
-  </si>
-  <si>
-    <t>7032008270</t>
-  </si>
-  <si>
-    <t>LH801697</t>
-  </si>
-  <si>
-    <t>SZLU9040537</t>
-  </si>
-  <si>
-    <t>7032008272</t>
-  </si>
-  <si>
-    <t>LH796376</t>
-  </si>
-  <si>
-    <t>ZCSU5102140</t>
-  </si>
-  <si>
-    <t>7032002340</t>
-  </si>
-  <si>
-    <t>BKK80020606</t>
-  </si>
-  <si>
-    <t>SEGU9160360</t>
-  </si>
-  <si>
-    <t>7032008271</t>
-  </si>
-  <si>
-    <t>LH799479</t>
-  </si>
-  <si>
-    <t>TRIU8220658</t>
-  </si>
-  <si>
-    <t>7032008268</t>
-  </si>
-  <si>
-    <t>LH801655</t>
-  </si>
-  <si>
-    <t>TCNU8906614</t>
-  </si>
-  <si>
     <t>7031998320</t>
   </si>
   <si>
     <t>BKK80019752</t>
+  </si>
+  <si>
+    <t>MRKU6239320</t>
+  </si>
+  <si>
+    <t>7032026511</t>
+  </si>
+  <si>
+    <t>SUDUN9998AGS7FXA</t>
+  </si>
+  <si>
+    <t>TCNU7293837</t>
+  </si>
+  <si>
+    <t>7032026513</t>
   </si>
 </sst>
 </file>
@@ -383,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -583,61 +610,61 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
         <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>58</v>
@@ -654,10 +681,10 @@
         <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>61</v>
@@ -674,10 +701,10 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
@@ -697,87 +724,87 @@
         <v>67</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
         <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
         <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>76</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
         <v>77</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
         <v>79</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
         <v>81</v>
-      </c>
-      <c r="D19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
         <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
@@ -794,30 +821,30 @@
         <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
         <v>88</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s">
         <v>89</v>
-      </c>
-      <c r="E21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
         <v>91</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
       </c>
       <c r="D22" t="s">
         <v>92</v>
@@ -854,10 +881,10 @@
         <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>98</v>
@@ -874,10 +901,10 @@
         <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
         <v>101</v>
@@ -914,10 +941,10 @@
         <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -927,6 +954,66 @@
       </c>
       <c r="F27" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal46/Test.xlsx
+++ b/SeattleTerminal46/Test.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\PortTerminalScraping\SeattleTerminal46\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7260"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -371,11 +378,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -387,7 +393,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -405,18 +411,294 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -456,7 +738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -476,7 +758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -496,7 +778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -516,7 +798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -536,7 +818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -556,7 +838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -576,7 +858,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -596,7 +878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -616,7 +898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -636,7 +918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -656,7 +938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -676,7 +958,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -696,7 +978,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -716,7 +998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -736,7 +1018,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -756,7 +1038,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -776,7 +1058,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -796,7 +1078,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -816,7 +1098,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -836,7 +1118,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -856,7 +1138,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -876,7 +1158,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -896,7 +1178,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -916,7 +1198,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -936,7 +1218,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -956,7 +1238,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -976,7 +1258,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -996,7 +1278,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -1017,6 +1299,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SeattleTerminal46/Test.xlsx
+++ b/SeattleTerminal46/Test.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\PortTerminalScraping\SeattleTerminal46\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7260"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -174,21 +167,6 @@
     <t>967884224</t>
   </si>
   <si>
-    <t>CXRU1440890</t>
-  </si>
-  <si>
-    <t>MSC ABIDJAN</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
-    <t>7031996113</t>
-  </si>
-  <si>
-    <t>MEDULH745845</t>
-  </si>
-  <si>
     <t>ZCSU5832364</t>
   </si>
   <si>
@@ -219,18 +197,6 @@
     <t>MEDULH796228</t>
   </si>
   <si>
-    <t>MRSU3930938</t>
-  </si>
-  <si>
-    <t>ZIM SAN DIEGO</t>
-  </si>
-  <si>
-    <t>7032022759</t>
-  </si>
-  <si>
-    <t>SUDUN9998AGCZ0MX</t>
-  </si>
-  <si>
     <t>ZCSU7051822</t>
   </si>
   <si>
@@ -348,18 +314,6 @@
     <t>LH801655</t>
   </si>
   <si>
-    <t>TCNU8906614</t>
-  </si>
-  <si>
-    <t>039E</t>
-  </si>
-  <si>
-    <t>7031998320</t>
-  </si>
-  <si>
-    <t>BKK80019752</t>
-  </si>
-  <si>
     <t>MRKU6239320</t>
   </si>
   <si>
@@ -373,15 +327,34 @@
   </si>
   <si>
     <t>7032026513</t>
+  </si>
+  <si>
+    <t>TCLU3475081</t>
+  </si>
+  <si>
+    <t>ZIM CHICAGO</t>
+  </si>
+  <si>
+    <t>00951</t>
+  </si>
+  <si>
+    <t>DJSEAA4000697</t>
+  </si>
+  <si>
+    <t>7031998322</t>
+  </si>
+  <si>
+    <t>580856820</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -393,7 +366,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -411,294 +384,18 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H30"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -738,7 +435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -758,7 +455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -778,7 +475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -798,7 +495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -818,7 +515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -838,7 +535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -858,7 +555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -878,7 +575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -898,7 +595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -918,49 +615,49 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -969,64 +666,64 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>61</v>
       </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
         <v>63</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="B16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
@@ -1038,7 +735,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -1058,109 +755,109 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>78</v>
       </c>
       <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
         <v>80</v>
       </c>
-      <c r="E19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
         <v>84</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>85</v>
       </c>
-      <c r="E20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
         <v>87</v>
       </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
         <v>88</v>
       </c>
-      <c r="E21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
         <v>92</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>92</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24">
+      <c r="A24" t="s">
         <v>94</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>97</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1169,136 +866,96 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
         <v>98</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>98</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26">
+      <c r="A26" t="s">
         <v>100</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>101</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>101</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27">
+      <c r="A27" t="s">
         <v>103</v>
       </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>104</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>104</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
         <v>106</v>
       </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
         <v>107</v>
       </c>
-      <c r="E27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="D28" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E28" t="s">
         <v>109</v>
       </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>110</v>
       </c>
-      <c r="D28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" t="s">
-        <v>115</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/SeattleTerminal46/Test.xlsx
+++ b/SeattleTerminal46/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="120">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,21 +32,6 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>MSCU7318622</t>
-  </si>
-  <si>
-    <t>MSC BRANKA</t>
-  </si>
-  <si>
-    <t>907</t>
-  </si>
-  <si>
-    <t>7031988379</t>
-  </si>
-  <si>
-    <t>MEDULH706284</t>
-  </si>
-  <si>
     <t>MRKU2665185</t>
   </si>
   <si>
@@ -80,22 +65,7 @@
     <t>SUDUN9998AFK5CT5</t>
   </si>
   <si>
-    <t>CXRU1560978</t>
-  </si>
-  <si>
-    <t>MSC LETIZIA</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>7032005103</t>
-  </si>
-  <si>
-    <t>LH788241</t>
-  </si>
-  <si>
-    <t>SZLU9476921</t>
+    <t>TTNU8707575</t>
   </si>
   <si>
     <t>MSC JULIE</t>
@@ -104,151 +74,304 @@
     <t>912</t>
   </si>
   <si>
-    <t>7032008269</t>
-  </si>
-  <si>
-    <t>LH801739</t>
-  </si>
-  <si>
-    <t>GESU9343094</t>
-  </si>
-  <si>
-    <t>7032006599</t>
-  </si>
-  <si>
-    <t>MEDULH796228</t>
-  </si>
-  <si>
-    <t>TCNU5386904</t>
+    <t>7032008266</t>
+  </si>
+  <si>
+    <t>LH796210</t>
+  </si>
+  <si>
+    <t>SZLU9476201</t>
+  </si>
+  <si>
+    <t>7032008265</t>
+  </si>
+  <si>
+    <t>LH796137</t>
+  </si>
+  <si>
+    <t>MSKU8481973</t>
+  </si>
+  <si>
+    <t>ZIM NINGBO</t>
+  </si>
+  <si>
+    <t>7032018679</t>
+  </si>
+  <si>
+    <t>SUDUN9998AGCT2KJ</t>
+  </si>
+  <si>
+    <t>CRXU6907907</t>
+  </si>
+  <si>
+    <t>7032008270</t>
+  </si>
+  <si>
+    <t>LH801697</t>
+  </si>
+  <si>
+    <t>SZLU9040537</t>
+  </si>
+  <si>
+    <t>7032008272</t>
+  </si>
+  <si>
+    <t>LH796376</t>
+  </si>
+  <si>
+    <t>CAIU7360401</t>
+  </si>
+  <si>
+    <t>00912</t>
+  </si>
+  <si>
+    <t>DJSEAA4030221</t>
+  </si>
+  <si>
+    <t>7032001598</t>
+  </si>
+  <si>
+    <t>RP103050</t>
+  </si>
+  <si>
+    <t>ZCSU5113530</t>
+  </si>
+  <si>
+    <t>CIMBRIA</t>
+  </si>
+  <si>
+    <t>026N</t>
+  </si>
+  <si>
+    <t>7032011039</t>
+  </si>
+  <si>
+    <t>BKK80020609</t>
+  </si>
+  <si>
+    <t>TTLU4457136</t>
+  </si>
+  <si>
+    <t>NORTHERN JASPER</t>
+  </si>
+  <si>
+    <t>003W</t>
+  </si>
+  <si>
+    <t>7032011042</t>
+  </si>
+  <si>
+    <t>BKK80020611</t>
+  </si>
+  <si>
+    <t>MRSU3976667</t>
   </si>
   <si>
     <t>ZIM CHICAGO</t>
   </si>
   <si>
-    <t>51W</t>
-  </si>
-  <si>
-    <t>7032006984</t>
-  </si>
-  <si>
-    <t>BKK80020797</t>
-  </si>
-  <si>
-    <t>TCLU3475081</t>
-  </si>
-  <si>
-    <t>00951</t>
-  </si>
-  <si>
-    <t>DJSEAA4000697</t>
-  </si>
-  <si>
-    <t>7031998322</t>
-  </si>
-  <si>
-    <t>580856820</t>
-  </si>
-  <si>
-    <t>MSKU8481973</t>
-  </si>
-  <si>
-    <t>ZIM NINGBO</t>
-  </si>
-  <si>
-    <t>7032018679</t>
-  </si>
-  <si>
-    <t>SUDUN9998AGCT2KJ</t>
-  </si>
-  <si>
-    <t>SEGU9160360</t>
-  </si>
-  <si>
-    <t>7032008271</t>
-  </si>
-  <si>
-    <t>LH799479</t>
-  </si>
-  <si>
-    <t>TRIU8220658</t>
-  </si>
-  <si>
-    <t>7032008268</t>
-  </si>
-  <si>
-    <t>LH801655</t>
-  </si>
-  <si>
-    <t>CRXU6907907</t>
-  </si>
-  <si>
-    <t>7032008270</t>
-  </si>
-  <si>
-    <t>LH801697</t>
-  </si>
-  <si>
-    <t>SZLU9040537</t>
-  </si>
-  <si>
-    <t>7032008272</t>
-  </si>
-  <si>
-    <t>LH796376</t>
-  </si>
-  <si>
-    <t>TTNU8707575</t>
-  </si>
-  <si>
-    <t>7032008266</t>
-  </si>
-  <si>
-    <t>LH796210</t>
-  </si>
-  <si>
-    <t>SZLU9476201</t>
-  </si>
-  <si>
-    <t>7032008265</t>
-  </si>
-  <si>
-    <t>LH796137</t>
-  </si>
-  <si>
-    <t>CAIU7360401</t>
-  </si>
-  <si>
-    <t>00912</t>
-  </si>
-  <si>
-    <t>DJSEAA4030221</t>
-  </si>
-  <si>
-    <t>7032001598</t>
-  </si>
-  <si>
-    <t>RP103050</t>
-  </si>
-  <si>
-    <t>BSIU3020991</t>
-  </si>
-  <si>
-    <t>00051</t>
-  </si>
-  <si>
-    <t>DJSEAA4037279</t>
-  </si>
-  <si>
-    <t>7032018413</t>
-  </si>
-  <si>
-    <t>NGB9374381</t>
+    <t>7032031579</t>
+  </si>
+  <si>
+    <t>SUDUN9SHA021406X</t>
+  </si>
+  <si>
+    <t>TEMU9411076</t>
+  </si>
+  <si>
+    <t>MSC CLEA</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>7032013984</t>
+  </si>
+  <si>
+    <t>LH822578</t>
+  </si>
+  <si>
+    <t>ZCSU8584174</t>
+  </si>
+  <si>
+    <t>7032011045</t>
+  </si>
+  <si>
+    <t>BKK80020614</t>
+  </si>
+  <si>
+    <t>MRSU3615432</t>
+  </si>
+  <si>
+    <t>7032031578</t>
+  </si>
+  <si>
+    <t>MAEU968101883</t>
+  </si>
+  <si>
+    <t>TCNU4950115</t>
+  </si>
+  <si>
+    <t>7032011040</t>
+  </si>
+  <si>
+    <t>BKK80020610</t>
+  </si>
+  <si>
+    <t>ZCSU5850795</t>
+  </si>
+  <si>
+    <t>7032011044</t>
+  </si>
+  <si>
+    <t>BKK80020613</t>
+  </si>
+  <si>
+    <t>ZIMU3066952</t>
+  </si>
+  <si>
+    <t>00003</t>
+  </si>
+  <si>
+    <t>DJSEAA4064935</t>
+  </si>
+  <si>
+    <t>7032022907</t>
+  </si>
+  <si>
+    <t>NGB9374384</t>
+  </si>
+  <si>
+    <t>MSCU4766650</t>
+  </si>
+  <si>
+    <t>00913</t>
+  </si>
+  <si>
+    <t>DJSEAA4064261</t>
+  </si>
+  <si>
+    <t>7032014280</t>
+  </si>
+  <si>
+    <t>G1972546</t>
   </si>
   <si>
     <t>TCLU5763847</t>
   </si>
   <si>
     <t>DJSEAA4030238</t>
+  </si>
+  <si>
+    <t>MEDU9133352</t>
+  </si>
+  <si>
+    <t>MSC MAXINE</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>7032022236</t>
+  </si>
+  <si>
+    <t>MEDULH859844</t>
+  </si>
+  <si>
+    <t>CRSU9072055</t>
+  </si>
+  <si>
+    <t>003E</t>
+  </si>
+  <si>
+    <t>7032011043</t>
+  </si>
+  <si>
+    <t>BKK80021163</t>
+  </si>
+  <si>
+    <t>ZIMU2927721</t>
+  </si>
+  <si>
+    <t>DJSEAA4045940</t>
+  </si>
+  <si>
+    <t>7032023150</t>
+  </si>
+  <si>
+    <t>SNH4322911</t>
+  </si>
+  <si>
+    <t>CXRU1424605</t>
+  </si>
+  <si>
+    <t>MSC CHANNE</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>7032015945</t>
+  </si>
+  <si>
+    <t>LH840471</t>
+  </si>
+  <si>
+    <t>TCLU1103465</t>
+  </si>
+  <si>
+    <t>7032013977</t>
+  </si>
+  <si>
+    <t>LH829789</t>
+  </si>
+  <si>
+    <t>ZIMU3011137</t>
+  </si>
+  <si>
+    <t>DJSEAA4064928</t>
+  </si>
+  <si>
+    <t>ZIMU3032314</t>
+  </si>
+  <si>
+    <t>DJSEAA4064931</t>
+  </si>
+  <si>
+    <t>TRIU8666357</t>
+  </si>
+  <si>
+    <t>7032022235</t>
+  </si>
+  <si>
+    <t>MEDULH867292</t>
+  </si>
+  <si>
+    <t>TGBU5756613</t>
+  </si>
+  <si>
+    <t>7032011033</t>
+  </si>
+  <si>
+    <t>BKK80021182</t>
+  </si>
+  <si>
+    <t>GAOU6094796</t>
+  </si>
+  <si>
+    <t>7032011041</t>
+  </si>
+  <si>
+    <t>BKK80021164</t>
+  </si>
+  <si>
+    <t>WFHU1469727</t>
+  </si>
+  <si>
+    <t>7032034709</t>
+  </si>
+  <si>
+    <t>SUDUN9998AH3ZLUM</t>
   </si>
 </sst>
 </file>
@@ -293,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -333,24 +456,24 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -384,299 +507,539 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
         <v>69</v>
       </c>
       <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
         <v>70</v>
-      </c>
-      <c r="F17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
         <v>72</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>73</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>74</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
         <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal46/Test.xlsx
+++ b/SeattleTerminal46/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,7 +32,22 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TTNU8707575</t>
+    <t>MSKU8481973</t>
+  </si>
+  <si>
+    <t>ZIM NINGBO</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>7032018679</t>
+  </si>
+  <si>
+    <t>SUDUN9998AGCT2KJ</t>
+  </si>
+  <si>
+    <t>CRXU6907907</t>
   </si>
   <si>
     <t>MSC JULIE</t>
@@ -41,30 +56,6 @@
     <t>912</t>
   </si>
   <si>
-    <t>7032008266</t>
-  </si>
-  <si>
-    <t>LH796210</t>
-  </si>
-  <si>
-    <t>MSKU8481973</t>
-  </si>
-  <si>
-    <t>ZIM NINGBO</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>7032018679</t>
-  </si>
-  <si>
-    <t>SUDUN9998AGCT2KJ</t>
-  </si>
-  <si>
-    <t>CRXU6907907</t>
-  </si>
-  <si>
     <t>7032008270</t>
   </si>
   <si>
@@ -92,21 +83,6 @@
     <t>SUDUN9SHA021406X</t>
   </si>
   <si>
-    <t>TEMU9411076</t>
-  </si>
-  <si>
-    <t>MSC CLEA</t>
-  </si>
-  <si>
-    <t>913</t>
-  </si>
-  <si>
-    <t>7032013984</t>
-  </si>
-  <si>
-    <t>LH822578</t>
-  </si>
-  <si>
     <t>MRSU3615432</t>
   </si>
   <si>
@@ -116,24 +92,12 @@
     <t>MAEU968101883</t>
   </si>
   <si>
-    <t>TCNU4950115</t>
+    <t>ZIMU3066952</t>
   </si>
   <si>
     <t>NORTHERN JASPER</t>
   </si>
   <si>
-    <t>003W</t>
-  </si>
-  <si>
-    <t>7032011040</t>
-  </si>
-  <si>
-    <t>BKK80020610</t>
-  </si>
-  <si>
-    <t>ZIMU3066952</t>
-  </si>
-  <si>
     <t>00003</t>
   </si>
   <si>
@@ -146,21 +110,6 @@
     <t>NGB9374384</t>
   </si>
   <si>
-    <t>MSCU4766650</t>
-  </si>
-  <si>
-    <t>00913</t>
-  </si>
-  <si>
-    <t>DJSEAA4064261</t>
-  </si>
-  <si>
-    <t>7032014280</t>
-  </si>
-  <si>
-    <t>G1972546</t>
-  </si>
-  <si>
     <t>MEDU9133352</t>
   </si>
   <si>
@@ -176,18 +125,6 @@
     <t>MEDULH859844</t>
   </si>
   <si>
-    <t>CRSU9072055</t>
-  </si>
-  <si>
-    <t>003E</t>
-  </si>
-  <si>
-    <t>7032011043</t>
-  </si>
-  <si>
-    <t>BKK80021163</t>
-  </si>
-  <si>
     <t>CXRU1424605</t>
   </si>
   <si>
@@ -203,15 +140,6 @@
     <t>LH840471</t>
   </si>
   <si>
-    <t>TCLU1103465</t>
-  </si>
-  <si>
-    <t>7032013977</t>
-  </si>
-  <si>
-    <t>LH829789</t>
-  </si>
-  <si>
     <t>ZIMU3011137</t>
   </si>
   <si>
@@ -233,28 +161,82 @@
     <t>MEDULH867292</t>
   </si>
   <si>
-    <t>GAOU6094796</t>
-  </si>
-  <si>
-    <t>7032011041</t>
-  </si>
-  <si>
-    <t>BKK80021164</t>
-  </si>
-  <si>
-    <t>ZCSU5111727</t>
+    <t>TTNU5465267</t>
+  </si>
+  <si>
+    <t>ANNA MAERSK</t>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>DJSEAA4141113</t>
+  </si>
+  <si>
+    <t>7032031778</t>
+  </si>
+  <si>
+    <t>SEL785312</t>
+  </si>
+  <si>
+    <t>TCNU8937087</t>
+  </si>
+  <si>
+    <t>002W</t>
+  </si>
+  <si>
+    <t>7032021560</t>
+  </si>
+  <si>
+    <t>BKK80020619</t>
+  </si>
+  <si>
+    <t>MSKU0602404</t>
   </si>
   <si>
     <t>MAERSK STRALSUND</t>
   </si>
   <si>
-    <t>004W</t>
-  </si>
-  <si>
-    <t>7032014751</t>
-  </si>
-  <si>
-    <t>BKK80020618</t>
+    <t>7032039423</t>
+  </si>
+  <si>
+    <t>SUDUN9998AGWIPV7</t>
+  </si>
+  <si>
+    <t>TGBU7090233</t>
+  </si>
+  <si>
+    <t>915N</t>
+  </si>
+  <si>
+    <t>7032014736</t>
+  </si>
+  <si>
+    <t>BKK80021179</t>
+  </si>
+  <si>
+    <t>TGBU5412768</t>
+  </si>
+  <si>
+    <t>00915</t>
+  </si>
+  <si>
+    <t>DJSEAA4114220</t>
+  </si>
+  <si>
+    <t>7032027531</t>
+  </si>
+  <si>
+    <t>SNH4322982</t>
+  </si>
+  <si>
+    <t>ZCSU7002495</t>
+  </si>
+  <si>
+    <t>7032021561</t>
+  </si>
+  <si>
+    <t>BKK80020621</t>
   </si>
   <si>
     <t>TGHU4814445</t>
@@ -263,40 +245,118 @@
     <t>MSC SOPHIE</t>
   </si>
   <si>
-    <t>915N</t>
-  </si>
-  <si>
     <t>7032038758</t>
   </si>
   <si>
     <t>MEDUVN814763</t>
   </si>
   <si>
-    <t>ZCSU5851322</t>
-  </si>
-  <si>
-    <t>7032014749</t>
-  </si>
-  <si>
-    <t>BKK80020617</t>
-  </si>
-  <si>
-    <t>JXLU5101014</t>
-  </si>
-  <si>
-    <t>7032014748</t>
-  </si>
-  <si>
-    <t>BKK80020616</t>
-  </si>
-  <si>
-    <t>ZCSU5864382</t>
-  </si>
-  <si>
-    <t>7032014753</t>
-  </si>
-  <si>
-    <t>BKK80020620</t>
+    <t>TCNU4341736</t>
+  </si>
+  <si>
+    <t>DJSEAA4114211</t>
+  </si>
+  <si>
+    <t>MEDU7839946</t>
+  </si>
+  <si>
+    <t>00914</t>
+  </si>
+  <si>
+    <t>DJPDXA4128356</t>
+  </si>
+  <si>
+    <t>7180861043</t>
+  </si>
+  <si>
+    <t>MEDUL1275451</t>
+  </si>
+  <si>
+    <t>TCKU6646690</t>
+  </si>
+  <si>
+    <t>7032014745</t>
+  </si>
+  <si>
+    <t>BKK80020798</t>
+  </si>
+  <si>
+    <t>TCKU6644608</t>
+  </si>
+  <si>
+    <t>7032014746</t>
+  </si>
+  <si>
+    <t>BKK80021268</t>
+  </si>
+  <si>
+    <t>TLLU4933090</t>
+  </si>
+  <si>
+    <t>GSL AFRICA</t>
+  </si>
+  <si>
+    <t>880N</t>
+  </si>
+  <si>
+    <t>7032021559</t>
+  </si>
+  <si>
+    <t>BKK80021467</t>
+  </si>
+  <si>
+    <t>INBU5265790</t>
+  </si>
+  <si>
+    <t>DJSEAA4140609</t>
+  </si>
+  <si>
+    <t>7032017524</t>
+  </si>
+  <si>
+    <t>G1972157</t>
+  </si>
+  <si>
+    <t>GLDU4237802</t>
+  </si>
+  <si>
+    <t>DJSEAA4140604</t>
+  </si>
+  <si>
+    <t>TTNU4958280</t>
+  </si>
+  <si>
+    <t>DJSEAA4140612</t>
+  </si>
+  <si>
+    <t>CAXU4348385</t>
+  </si>
+  <si>
+    <t>DJSEAA4140600</t>
+  </si>
+  <si>
+    <t>FSCU7725390</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>7032019968</t>
+  </si>
+  <si>
+    <t>MY606417</t>
+  </si>
+  <si>
+    <t>MEDU4314975</t>
+  </si>
+  <si>
+    <t>DJSEAA4147560</t>
+  </si>
+  <si>
+    <t>7032010351</t>
+  </si>
+  <si>
+    <t>MEDUTS022910</t>
   </si>
 </sst>
 </file>
@@ -341,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -412,10 +472,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -432,30 +492,30 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -481,70 +541,70 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -555,196 +615,196 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
         <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
         <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
         <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -752,13 +812,13 @@
         <v>81</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
       </c>
       <c r="E21" t="s">
         <v>84</v>
@@ -772,10 +832,10 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
@@ -792,10 +852,10 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
         <v>90</v>
@@ -812,19 +872,139 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal46/Test.xlsx
+++ b/SeattleTerminal46/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -92,126 +92,138 @@
     <t>SUDUN9998AGWIPV7</t>
   </si>
   <si>
-    <t>ZCSU7002495</t>
+    <t>INBU5265790</t>
+  </si>
+  <si>
+    <t>MSC CHANNE</t>
+  </si>
+  <si>
+    <t>00914</t>
+  </si>
+  <si>
+    <t>DJSEAA4140609</t>
+  </si>
+  <si>
+    <t>7032017524</t>
+  </si>
+  <si>
+    <t>G1972157</t>
+  </si>
+  <si>
+    <t>GLDU5627519</t>
+  </si>
+  <si>
+    <t>ZIM NINGBO</t>
+  </si>
+  <si>
+    <t>00055</t>
+  </si>
+  <si>
+    <t>DJSEAA4153375</t>
+  </si>
+  <si>
+    <t>7032023851</t>
+  </si>
+  <si>
+    <t>MY618248</t>
+  </si>
+  <si>
+    <t>TRIU8060375</t>
+  </si>
+  <si>
+    <t>MSC AZOV</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>7032034303</t>
+  </si>
+  <si>
+    <t>LH914292</t>
+  </si>
+  <si>
+    <t>MRKU0642956</t>
+  </si>
+  <si>
+    <t>00955</t>
+  </si>
+  <si>
+    <t>DJSEAA4192430</t>
+  </si>
+  <si>
+    <t>7032024198</t>
+  </si>
+  <si>
+    <t>581485718</t>
+  </si>
+  <si>
+    <t>TRIU8085202</t>
+  </si>
+  <si>
+    <t>MSC ATHOS</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>7032025168</t>
+  </si>
+  <si>
+    <t>MEDULH885153</t>
+  </si>
+  <si>
+    <t>MSKU3527747</t>
+  </si>
+  <si>
+    <t>ZIM SAN DIEGO</t>
+  </si>
+  <si>
+    <t>00940</t>
+  </si>
+  <si>
+    <t>DJSEAA4185713</t>
+  </si>
+  <si>
+    <t>7032015898</t>
+  </si>
+  <si>
+    <t>968517389</t>
+  </si>
+  <si>
+    <t>TGHU4666950</t>
+  </si>
+  <si>
+    <t>00915</t>
+  </si>
+  <si>
+    <t>DJSEAA4168854</t>
+  </si>
+  <si>
+    <t>7032022951</t>
+  </si>
+  <si>
+    <t>G2033892</t>
+  </si>
+  <si>
+    <t>CLHU4431815</t>
+  </si>
+  <si>
+    <t>DJSEAA4168853</t>
+  </si>
+  <si>
+    <t>MRKU5900647</t>
   </si>
   <si>
     <t>ANNA MAERSK</t>
   </si>
   <si>
-    <t>002W</t>
-  </si>
-  <si>
-    <t>7032021561</t>
-  </si>
-  <si>
-    <t>BKK80020621</t>
-  </si>
-  <si>
-    <t>TLLU4933090</t>
-  </si>
-  <si>
-    <t>GSL AFRICA</t>
-  </si>
-  <si>
-    <t>880N</t>
-  </si>
-  <si>
-    <t>7032021559</t>
-  </si>
-  <si>
-    <t>BKK80021467</t>
-  </si>
-  <si>
-    <t>INBU5265790</t>
-  </si>
-  <si>
-    <t>MSC CHANNE</t>
-  </si>
-  <si>
-    <t>00914</t>
-  </si>
-  <si>
-    <t>DJSEAA4140609</t>
-  </si>
-  <si>
-    <t>7032017524</t>
-  </si>
-  <si>
-    <t>G1972157</t>
-  </si>
-  <si>
-    <t>GLDU5627519</t>
-  </si>
-  <si>
-    <t>ZIM NINGBO</t>
-  </si>
-  <si>
-    <t>00055</t>
-  </si>
-  <si>
-    <t>DJSEAA4153375</t>
-  </si>
-  <si>
-    <t>7032023851</t>
-  </si>
-  <si>
-    <t>MY618248</t>
-  </si>
-  <si>
-    <t>TRIU8085202</t>
-  </si>
-  <si>
-    <t>MSC ATHOS</t>
-  </si>
-  <si>
-    <t>916</t>
-  </si>
-  <si>
-    <t>7032025168</t>
-  </si>
-  <si>
-    <t>MEDULH885153</t>
-  </si>
-  <si>
-    <t>TGHU4666950</t>
-  </si>
-  <si>
-    <t>00915</t>
-  </si>
-  <si>
-    <t>DJSEAA4168854</t>
-  </si>
-  <si>
-    <t>7032022951</t>
-  </si>
-  <si>
-    <t>G2033892</t>
-  </si>
-  <si>
-    <t>CLHU4431815</t>
-  </si>
-  <si>
-    <t>DJSEAA4168853</t>
-  </si>
-  <si>
-    <t>MRKU5900647</t>
-  </si>
-  <si>
     <t>7032043830</t>
   </si>
   <si>
     <t>SUDUN9998AH4LKYX</t>
   </si>
   <si>
-    <t>FSCU7725390</t>
-  </si>
-  <si>
-    <t>7032019968</t>
-  </si>
-  <si>
-    <t>MY606417</t>
-  </si>
-  <si>
     <t>MEDU4314975</t>
   </si>
   <si>
@@ -239,25 +251,19 @@
     <t>MRKU0262370</t>
   </si>
   <si>
-    <t>00955</t>
-  </si>
-  <si>
     <t>DJSEAA4179155</t>
   </si>
   <si>
     <t>7032024199</t>
   </si>
   <si>
-    <t>581485718</t>
+    <t>MRKU9755526</t>
+  </si>
+  <si>
+    <t>DJSEAA4185705</t>
   </si>
   <si>
     <t>MEDU2989706</t>
-  </si>
-  <si>
-    <t>MSC AZOV</t>
-  </si>
-  <si>
-    <t>918</t>
   </si>
   <si>
     <t>7032037291</t>
@@ -317,7 +323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -457,58 +463,58 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -548,179 +554,199 @@
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
         <v>84</v>
       </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
         <v>50</v>
       </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" t="s">
-        <v>86</v>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal46/Test.xlsx
+++ b/SeattleTerminal46/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="146">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -56,43 +56,184 @@
     <t>MAEU968101883</t>
   </si>
   <si>
-    <t>MEDU9133352</t>
+    <t>MSKU0602404</t>
+  </si>
+  <si>
+    <t>MAERSK STRALSUND</t>
+  </si>
+  <si>
+    <t>7032039423</t>
+  </si>
+  <si>
+    <t>SUDUN9998AGWIPV7</t>
+  </si>
+  <si>
+    <t>MRKU0976233</t>
+  </si>
+  <si>
+    <t>MAERSK SARNIA</t>
+  </si>
+  <si>
+    <t>919N</t>
+  </si>
+  <si>
+    <t>DJSEAA4199346</t>
+  </si>
+  <si>
+    <t>7032038935</t>
+  </si>
+  <si>
+    <t>SUDUN9KCA009210X</t>
+  </si>
+  <si>
+    <t>FSCU4876114</t>
+  </si>
+  <si>
+    <t>MSC ATHOS</t>
+  </si>
+  <si>
+    <t>00916</t>
+  </si>
+  <si>
+    <t>DJSEAA4193539</t>
+  </si>
+  <si>
+    <t>7032025474</t>
+  </si>
+  <si>
+    <t>G2076693</t>
+  </si>
+  <si>
+    <t>TRIU8060375</t>
+  </si>
+  <si>
+    <t>MSC AZOV</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>7032034303</t>
+  </si>
+  <si>
+    <t>LH914292</t>
+  </si>
+  <si>
+    <t>GCXU5084012</t>
+  </si>
+  <si>
+    <t>ZIM NINGBO</t>
+  </si>
+  <si>
+    <t>055E</t>
+  </si>
+  <si>
+    <t>7032024193</t>
+  </si>
+  <si>
+    <t>BKK80021687</t>
+  </si>
+  <si>
+    <t>TCNU4295630</t>
+  </si>
+  <si>
+    <t>7032024196</t>
+  </si>
+  <si>
+    <t>BKK80021689</t>
+  </si>
+  <si>
+    <t>TCNU1834662</t>
+  </si>
+  <si>
+    <t>7032024185</t>
+  </si>
+  <si>
+    <t>BKK80021486</t>
+  </si>
+  <si>
+    <t>TEMU9150389</t>
+  </si>
+  <si>
+    <t>SAN DIEGO</t>
+  </si>
+  <si>
+    <t>040W</t>
+  </si>
+  <si>
+    <t>7032028202</t>
+  </si>
+  <si>
+    <t>BKK80020622</t>
+  </si>
+  <si>
+    <t>TRIU8085202</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>7032025168</t>
+  </si>
+  <si>
+    <t>MEDULH885153</t>
+  </si>
+  <si>
+    <t>MSKU3527747</t>
+  </si>
+  <si>
+    <t>ZIM SAN DIEGO</t>
+  </si>
+  <si>
+    <t>00940</t>
+  </si>
+  <si>
+    <t>DJSEAA4185713</t>
+  </si>
+  <si>
+    <t>7032015898</t>
+  </si>
+  <si>
+    <t>968517389</t>
+  </si>
+  <si>
+    <t>TGHU4666950</t>
   </si>
   <si>
     <t>MSC MAXINE</t>
   </si>
   <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>7032022236</t>
-  </si>
-  <si>
-    <t>MEDULH859844</t>
-  </si>
-  <si>
-    <t>TRIU8666357</t>
-  </si>
-  <si>
-    <t>7032022235</t>
-  </si>
-  <si>
-    <t>MEDULH867292</t>
-  </si>
-  <si>
-    <t>MSKU0602404</t>
-  </si>
-  <si>
-    <t>MAERSK STRALSUND</t>
-  </si>
-  <si>
-    <t>7032039423</t>
-  </si>
-  <si>
-    <t>SUDUN9998AGWIPV7</t>
-  </si>
-  <si>
-    <t>INBU5265790</t>
+    <t>00915</t>
+  </si>
+  <si>
+    <t>DJSEAA4168854</t>
+  </si>
+  <si>
+    <t>7032022951</t>
+  </si>
+  <si>
+    <t>G2033892</t>
+  </si>
+  <si>
+    <t>CLHU4431815</t>
+  </si>
+  <si>
+    <t>DJSEAA4168853</t>
+  </si>
+  <si>
+    <t>MRKU5900647</t>
+  </si>
+  <si>
+    <t>ANNA MAERSK</t>
+  </si>
+  <si>
+    <t>7032043830</t>
+  </si>
+  <si>
+    <t>SUDUN9998AH4LKYX</t>
+  </si>
+  <si>
+    <t>MEDU4314975</t>
   </si>
   <si>
     <t>MSC CHANNE</t>
@@ -101,160 +242,124 @@
     <t>00914</t>
   </si>
   <si>
-    <t>DJSEAA4140609</t>
-  </si>
-  <si>
-    <t>7032017524</t>
-  </si>
-  <si>
-    <t>G1972157</t>
-  </si>
-  <si>
-    <t>GLDU5627519</t>
-  </si>
-  <si>
-    <t>ZIM NINGBO</t>
-  </si>
-  <si>
-    <t>00055</t>
-  </si>
-  <si>
-    <t>DJSEAA4153375</t>
-  </si>
-  <si>
-    <t>7032023851</t>
-  </si>
-  <si>
-    <t>MY618248</t>
-  </si>
-  <si>
-    <t>TRIU8060375</t>
-  </si>
-  <si>
-    <t>MSC AZOV</t>
-  </si>
-  <si>
-    <t>918</t>
-  </si>
-  <si>
-    <t>7032034303</t>
-  </si>
-  <si>
-    <t>LH914292</t>
-  </si>
-  <si>
-    <t>MRKU0642956</t>
+    <t>DJSEAA4147560</t>
+  </si>
+  <si>
+    <t>7032010351</t>
+  </si>
+  <si>
+    <t>MEDUTS022910</t>
+  </si>
+  <si>
+    <t>TRIU8155260</t>
+  </si>
+  <si>
+    <t>MSC ALGECIRAS</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>7032040740</t>
+  </si>
+  <si>
+    <t>MEDULH946997</t>
+  </si>
+  <si>
+    <t>MSKU6533804</t>
+  </si>
+  <si>
+    <t>DJSEAA4199335</t>
+  </si>
+  <si>
+    <t>7032038934</t>
+  </si>
+  <si>
+    <t>SUDUN9KCA009205X</t>
+  </si>
+  <si>
+    <t>MEDU4322651</t>
+  </si>
+  <si>
+    <t>DJSEAA4193693</t>
+  </si>
+  <si>
+    <t>7032025479</t>
+  </si>
+  <si>
+    <t>G2096956</t>
+  </si>
+  <si>
+    <t>MSCU7421986</t>
+  </si>
+  <si>
+    <t>MSC ADELAIDE</t>
+  </si>
+  <si>
+    <t>7032027558</t>
+  </si>
+  <si>
+    <t>LH894221</t>
+  </si>
+  <si>
+    <t>TLLU5315959</t>
+  </si>
+  <si>
+    <t>7032024194</t>
+  </si>
+  <si>
+    <t>BKK80021688</t>
+  </si>
+  <si>
+    <t>SZLU9504345</t>
+  </si>
+  <si>
+    <t>7032040739</t>
+  </si>
+  <si>
+    <t>MEDULH946658</t>
+  </si>
+  <si>
+    <t>TRIU8730100</t>
+  </si>
+  <si>
+    <t>040E</t>
+  </si>
+  <si>
+    <t>7032028203</t>
+  </si>
+  <si>
+    <t>BKK80020623</t>
+  </si>
+  <si>
+    <t>TTNU8371285</t>
+  </si>
+  <si>
+    <t>7032043052</t>
+  </si>
+  <si>
+    <t>MEDULH947805</t>
+  </si>
+  <si>
+    <t>MRKU0262370</t>
   </si>
   <si>
     <t>00955</t>
   </si>
   <si>
-    <t>DJSEAA4192430</t>
-  </si>
-  <si>
-    <t>7032024198</t>
+    <t>DJSEAA4179155</t>
+  </si>
+  <si>
+    <t>7032024199</t>
   </si>
   <si>
     <t>581485718</t>
   </si>
   <si>
-    <t>TRIU8085202</t>
-  </si>
-  <si>
-    <t>MSC ATHOS</t>
-  </si>
-  <si>
-    <t>916</t>
-  </si>
-  <si>
-    <t>7032025168</t>
-  </si>
-  <si>
-    <t>MEDULH885153</t>
-  </si>
-  <si>
-    <t>MSKU3527747</t>
-  </si>
-  <si>
-    <t>ZIM SAN DIEGO</t>
-  </si>
-  <si>
-    <t>00940</t>
-  </si>
-  <si>
-    <t>DJSEAA4185713</t>
-  </si>
-  <si>
-    <t>7032015898</t>
-  </si>
-  <si>
-    <t>968517389</t>
-  </si>
-  <si>
-    <t>TGHU4666950</t>
-  </si>
-  <si>
-    <t>00915</t>
-  </si>
-  <si>
-    <t>DJSEAA4168854</t>
-  </si>
-  <si>
-    <t>7032022951</t>
-  </si>
-  <si>
-    <t>G2033892</t>
-  </si>
-  <si>
-    <t>CLHU4431815</t>
-  </si>
-  <si>
-    <t>DJSEAA4168853</t>
-  </si>
-  <si>
-    <t>MRKU5900647</t>
-  </si>
-  <si>
-    <t>ANNA MAERSK</t>
-  </si>
-  <si>
-    <t>7032043830</t>
-  </si>
-  <si>
-    <t>SUDUN9998AH4LKYX</t>
-  </si>
-  <si>
-    <t>MEDU4314975</t>
-  </si>
-  <si>
-    <t>DJSEAA4147560</t>
-  </si>
-  <si>
-    <t>7032010351</t>
-  </si>
-  <si>
-    <t>MEDUTS022910</t>
-  </si>
-  <si>
-    <t>MSCU7421986</t>
-  </si>
-  <si>
-    <t>MSC ADELAIDE</t>
-  </si>
-  <si>
-    <t>7032027558</t>
-  </si>
-  <si>
-    <t>LH894221</t>
-  </si>
-  <si>
-    <t>MRKU0262370</t>
-  </si>
-  <si>
-    <t>DJSEAA4179155</t>
-  </si>
-  <si>
-    <t>7032024199</t>
+    <t>MSCU6850991</t>
+  </si>
+  <si>
+    <t>DJSEAA4193694</t>
   </si>
   <si>
     <t>MRKU9755526</t>
@@ -279,6 +384,72 @@
   </si>
   <si>
     <t>LH894205</t>
+  </si>
+  <si>
+    <t>MEDU9019329</t>
+  </si>
+  <si>
+    <t>7032048123</t>
+  </si>
+  <si>
+    <t>MEDUSG655237</t>
+  </si>
+  <si>
+    <t>TCNU5410826</t>
+  </si>
+  <si>
+    <t>7032024186</t>
+  </si>
+  <si>
+    <t>BKK80021690</t>
+  </si>
+  <si>
+    <t>MEDU7347925</t>
+  </si>
+  <si>
+    <t>DJSEAA4230358</t>
+  </si>
+  <si>
+    <t>7032025147</t>
+  </si>
+  <si>
+    <t>IS796148</t>
+  </si>
+  <si>
+    <t>7032024187</t>
+  </si>
+  <si>
+    <t>TCLU5306408</t>
+  </si>
+  <si>
+    <t>DJSEAA4230366</t>
+  </si>
+  <si>
+    <t>7032048126</t>
+  </si>
+  <si>
+    <t>MEDUSG753248</t>
+  </si>
+  <si>
+    <t>GLDU5355067</t>
+  </si>
+  <si>
+    <t>DJSEAA4230348</t>
+  </si>
+  <si>
+    <t>MEDU2661168</t>
+  </si>
+  <si>
+    <t>MSC MANDY</t>
+  </si>
+  <si>
+    <t>914R</t>
+  </si>
+  <si>
+    <t>7032021462</t>
+  </si>
+  <si>
+    <t>MEDUCO632904</t>
   </si>
 </sst>
 </file>
@@ -323,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -397,107 +568,107 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -514,239 +685,579 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
         <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>65</v>
       </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
       </c>
       <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
